--- a/biology/Zoologie/Euripus/Euripus.xlsx
+++ b/biology/Zoologie/Euripus/Euripus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Euripus regroupe des lépidoptères appartenant à la famille des Nymphalidae et à la sous-famille des Apaturinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Euripus leur a été donné par Henry Doubleday en 1848.
 Ce sont en anglais les Courtesans.
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Euripus consimilis (Westwood, 1850).Présent en Inde, Birmanie et Thaïlande.
 Euripus consimilis consimilis dans le nord de l'Inde, en Birmanie et Thaïlande.
@@ -553,7 +569,7 @@
 Euripus nyctelius nyctelius en Inde et Birmanie.
 Euripus nyctelius borneensis Distant &amp; Pryer ;
 Euripus nyctelius clytia Felder ;  aux Philippines.
-Euripus nyctelius euploeoides C. et R. Felder, [1867] en Malaisie, à Singapour et Sumatra.
+Euripus nyctelius euploeoides C. et R. Felder,  en Malaisie, à Singapour et Sumatra.
 Euripus nyctelius javanus Fruhstorfer ;
 Euripus nyctelius mastor Fruhstorfer, 1903 ; dans toute l'Indochine.
 Euripus nyctelius niasicus Fruhstorfer ;
